--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,18 @@
     <t>2016-07-26 07:29:06</t>
   </si>
   <si>
+    <t>784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
+  </si>
+  <si>
+    <t>e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:35:09</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -121,10 +133,25 @@
     <t>False</t>
   </si>
   <si>
+    <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:34:56</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:35:46</t>
+  </si>
+  <si>
     <t>d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.351aee6ffdb166e8dbf54d452fbf4a1b4b70c6d6.de-de.xlf</t>
   </si>
   <si>
     <t>2016-07-26 07:30:44</t>
+  </si>
+  <si>
+    <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:36:00</t>
   </si>
 </sst>
 </file>
@@ -181,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O2" headerRowCount="1">
-  <autoFilter ref="A1:O2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O3" headerRowCount="1">
+  <autoFilter ref="A1:O3"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -205,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O2" headerRowCount="1">
-  <autoFilter ref="A1:O2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O3" headerRowCount="1">
+  <autoFilter ref="A1:O3"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -229,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -246,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -304,9 +331,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -317,7 +365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -342,49 +390,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -398,46 +446,95 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>32</v>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId2"/>
     <hyperlink ref="H2" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -448,7 +545,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -473,49 +570,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -529,13 +626,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -544,31 +641,80 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>32</v>
+      <c r="F3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId2"/>
     <hyperlink ref="H2" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -52,15 +52,24 @@
     <t>2016-07-26 07:29:06</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.md</t>
+  </si>
+  <si>
+    <t>e2e\764572f9-b085-46ab-8799-703da283ea79.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:38:14</t>
+  </si>
+  <si>
     <t>784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
   </si>
   <si>
     <t>e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2016-07-26 07:35:09</t>
   </si>
   <si>
@@ -133,6 +142,15 @@
     <t>False</t>
   </si>
   <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:38:01</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:38:46</t>
+  </si>
+  <si>
     <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.zh-cn.xlf</t>
   </si>
   <si>
@@ -146,6 +164,12 @@
   </si>
   <si>
     <t>2016-07-26 07:30:44</t>
+  </si>
+  <si>
+    <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:39:01</t>
   </si>
   <si>
     <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.de-de.xlf</t>
@@ -208,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O3" headerRowCount="1">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O4" headerRowCount="1">
+  <autoFilter ref="A1:O4"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -232,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O3" headerRowCount="1">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O4" headerRowCount="1">
+  <autoFilter ref="A1:O4"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -256,8 +280,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -273,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -351,10 +375,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId3"/>
+    <hyperlink ref="B3" display="e2e\764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -365,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -390,49 +435,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -446,40 +491,40 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -493,48 +538,97 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId2"/>
     <hyperlink ref="H2" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -545,7 +639,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -570,49 +664,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -626,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -641,25 +735,25 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -673,13 +767,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -688,33 +782,82 @@
         <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId2"/>
     <hyperlink ref="H2" display="d748bcd5-2dab-4fe9-a15e-2732f2cb83c1.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="764572f9-b085-46ab-8799-703da283ea79.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="784fe723-381e-4e23-8e28-86fe1fad8652.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
@@ -61,7 +61,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-07-26 07:38:14</t>
+    <t>2016-07-26 07:39:41</t>
   </si>
   <si>
     <t>784fe723-381e-4e23-8e28-86fe1fad8652.md</t>
@@ -145,10 +145,10 @@
     <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:38:01</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:38:46</t>
+    <t>2016-07-26 07:39:32</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:40:26</t>
   </si>
   <si>
     <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.zh-cn.xlf</t>
@@ -169,7 +169,7 @@
     <t>764572f9-b085-46ab-8799-703da283ea79.3844d99abcb44d7b129f993c7a0de3b8e799264f.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:39:01</t>
+    <t>2016-07-26 07:40:42</t>
   </si>
   <si>
     <t>784fe723-381e-4e23-8e28-86fe1fad8652.447dfaf26189e80747febcb481073f9d8bc9a49a.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -49,15 +49,18 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2016-07-26 07:50:58</t>
+  </si>
+  <si>
+    <t>cd5de85f-c520-41f2-a366-3089116b628a.md</t>
+  </si>
+  <si>
+    <t>e2e\cd5de85f-c520-41f2-a366-3089116b628a.md</t>
+  </si>
+  <si>
     <t>2016-07-26 07:49:08</t>
   </si>
   <si>
-    <t>cd5de85f-c520-41f2-a366-3089116b628a.md</t>
-  </si>
-  <si>
-    <t>e2e\cd5de85f-c520-41f2-a366-3089116b628a.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -112,31 +115,40 @@
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-07-26 07:50:48</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:51:48</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-07-26 07:48:56</t>
   </si>
   <si>
     <t>2016-07-26 07:49:47</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-07-26 07:52:05</t>
+  </si>
+  <si>
+    <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-07-26 07:50:01</t>
-  </si>
-  <si>
-    <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -333,7 +345,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -375,49 +387,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -431,40 +443,40 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -478,40 +490,40 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -555,49 +567,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -611,13 +623,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -626,25 +638,25 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -658,40 +670,40 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -49,16 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-07-26 07:50:58</t>
-  </si>
-  <si>
-    <t>cd5de85f-c520-41f2-a366-3089116b628a.md</t>
-  </si>
-  <si>
-    <t>e2e\cd5de85f-c520-41f2-a366-3089116b628a.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:49:08</t>
+    <t>2016-07-26 07:52:49</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,10 +106,10 @@
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:50:48</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:51:48</t>
+    <t>2016-07-26 07:52:40</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:53:28</t>
   </si>
   <si>
     <t/>
@@ -130,25 +121,10 @@
     <t>False</t>
   </si>
   <si>
-    <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:48:56</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:49:47</t>
-  </si>
-  <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:52:05</t>
-  </si>
-  <si>
-    <t>cd5de85f-c520-41f2-a366-3089116b628a.51cc6d570a4abf1ead8faa388544c1cb2a33f35d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:50:01</t>
+    <t>2016-07-26 07:53:43</t>
   </si>
 </sst>
 </file>
@@ -205,8 +181,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O3" headerRowCount="1">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O2" headerRowCount="1">
+  <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -229,8 +205,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O3" headerRowCount="1">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O2" headerRowCount="1">
+  <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -253,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -270,7 +246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -328,30 +304,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -362,7 +317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,49 +342,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -443,95 +398,46 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
     <hyperlink ref="H2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -542,7 +448,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -567,49 +473,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -623,13 +529,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -638,80 +544,31 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId2"/>
     <hyperlink ref="H2" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="cd5de85f-c520-41f2-a366-3089116b628a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>File Name</t>
   </si>
@@ -37,31 +37,28 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>2f83fb85-584a-4011-b8df-d16e457a39f2.md</t>
+  </si>
+  <si>
+    <t>e2e\2f83fb85-584a-4011-b8df-d16e457a39f2.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:54:31</t>
+  </si>
+  <si>
     <t>7c5c77fa-d6be-4679-b7a2-a34990993766.md</t>
   </si>
   <si>
     <t>e2e\7c5c77fa-d6be-4679-b7a2-a34990993766.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:56:22</t>
-  </si>
-  <si>
-    <t>2f83fb85-584a-4011-b8df-d16e457a39f2.md</t>
-  </si>
-  <si>
-    <t>e2e\2f83fb85-584a-4011-b8df-d16e457a39f2.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:54:31</t>
+    <t>2016-07-26 07:57:00</t>
   </si>
   <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.md</t>
@@ -130,31 +127,31 @@
     <t>ht</t>
   </si>
   <si>
+    <t>2f83fb85-584a-4011-b8df-d16e457a39f2.d1f563e444e168d50ce3f10a0a07a1764ca7da44.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:54:21</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:55:10</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>7c5c77fa-d6be-4679-b7a2-a34990993766.c9acd613c6bc70dc0a6d81be1a5562422adea787.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:56:12</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:57:34</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>2f83fb85-584a-4011-b8df-d16e457a39f2.d1f563e444e168d50ce3f10a0a07a1764ca7da44.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:54:21</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:55:10</t>
+    <t>2016-07-26 07:56:51</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:58:33</t>
   </si>
   <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.zh-cn.xlf</t>
@@ -166,16 +163,16 @@
     <t>2016-07-26 07:53:28</t>
   </si>
   <si>
+    <t>2f83fb85-584a-4011-b8df-d16e457a39f2.d1f563e444e168d50ce3f10a0a07a1764ca7da44.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 07:55:25</t>
+  </si>
+  <si>
     <t>7c5c77fa-d6be-4679-b7a2-a34990993766.c9acd613c6bc70dc0a6d81be1a5562422adea787.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 07:57:51</t>
-  </si>
-  <si>
-    <t>2f83fb85-584a-4011-b8df-d16e457a39f2.d1f563e444e168d50ce3f10a0a07a1764ca7da44.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 07:55:25</t>
+    <t>2016-07-26 07:58:49</t>
   </si>
   <si>
     <t>8e704ed7-a182-4feb-8210-20c894755a9b.0372e44f3e5860a3373de4e275df5270b9d133b6.de-de.xlf</t>
@@ -313,8 +310,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -372,59 +369,59 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId5"/>
   </hyperlinks>
@@ -445,7 +442,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -462,49 +459,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -518,40 +515,40 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="O2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -562,145 +559,145 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="K4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="M4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="O4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="M5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="O5" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId5"/>
     <hyperlink ref="A4" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId6"/>
     <hyperlink ref="H4" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId7"/>
     <hyperlink ref="A5" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId8"/>
@@ -723,7 +720,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
@@ -740,49 +737,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -796,13 +793,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -811,25 +808,25 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="K2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="O2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -840,145 +837,145 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="K3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="K4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="M4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="O4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="M5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="O5" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="2f83fb85-584a-4011-b8df-d16e457a39f2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="7c5c77fa-d6be-4679-b7a2-a34990993766.md" r:id="rId5"/>
     <hyperlink ref="A4" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId6"/>
     <hyperlink ref="H4" display="8e704ed7-a182-4feb-8210-20c894755a9b.md" r:id="rId7"/>
     <hyperlink ref="A5" display="e1cc6d76-ec13-4168-b9ea-e0557e48ea69.md" r:id="rId8"/>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-07-26 08:16:19</t>
+    <t>2016-07-26 08:18:23</t>
   </si>
   <si>
     <t>fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
@@ -121,10 +121,10 @@
     <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:16:01</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:16:53</t>
+    <t>2016-07-26 08:18:12</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:19:25</t>
   </si>
   <si>
     <t/>
@@ -148,7 +148,7 @@
     <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:17:15</t>
+    <t>2016-07-26 08:19:43</t>
   </si>
   <si>
     <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-07-26 08:18:23</t>
+    <t>2016-07-26 08:20:40</t>
   </si>
   <si>
     <t>fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
@@ -121,10 +121,10 @@
     <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:18:12</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:19:25</t>
+    <t>2016-07-26 08:20:30</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:21:15</t>
   </si>
   <si>
     <t/>
@@ -148,7 +148,7 @@
     <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-07-26 08:19:43</t>
+    <t>2016-07-26 08:21:29</t>
   </si>
   <si>
     <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
-  </si>
-  <si>
-    <t>e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md</t>
+    <t>88552b79-3232-45b1-9dbb-f65282794b4c.md</t>
+  </si>
+  <si>
+    <t>e2e\88552b79-3232-45b1-9dbb-f65282794b4c.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,22 +49,13 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-07-26 08:20:40</t>
-  </si>
-  <si>
-    <t>fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
-  </si>
-  <si>
-    <t>e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:09:56</t>
-  </si>
-  <si>
-    <t>ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md</t>
+    <t>2016-07-26 08:22:25</t>
+  </si>
+  <si>
+    <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md</t>
+  </si>
+  <si>
+    <t>e2e\ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,13 +109,13 @@
     <t>ht</t>
   </si>
   <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:20:30</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:21:15</t>
+    <t>88552b79-3232-45b1-9dbb-f65282794b4c.4e69898a37946567d0d9bc9b650b911e5a646c1f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:22:15</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:23:14</t>
   </si>
   <si>
     <t/>
@@ -136,25 +127,16 @@
     <t>False</t>
   </si>
   <si>
-    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:09:46</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:10:36</t>
-  </si>
-  <si>
-    <t>505d041b-0c10-4e8c-afde-d41eb890b5b2.de55513c87b37a3b409a404a7b52f4aec8d61f69.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:21:29</t>
-  </si>
-  <si>
-    <t>dfd87fc3-e78e-4fa1-95a1-f875ed042ef9.2f07c35368b9579b291927cc6804ae3b6a7af3f0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:10:51</t>
+    <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.d93bf6ab61dcd3b74c5fe2538052fd1321ecf7ac.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>88552b79-3232-45b1-9dbb-f65282794b4c.4e69898a37946567d0d9bc9b650b911e5a646c1f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:23:32</t>
+  </si>
+  <si>
+    <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.d93bf6ab61dcd3b74c5fe2538052fd1321ecf7ac.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -211,8 +193,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O4" headerRowCount="1">
-  <autoFilter ref="A1:O4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O3" headerRowCount="1">
+  <autoFilter ref="A1:O3"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -235,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O4" headerRowCount="1">
-  <autoFilter ref="A1:O4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O3" headerRowCount="1">
+  <autoFilter ref="A1:O3"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -259,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -276,7 +258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -351,34 +333,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -389,7 +350,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,49 +375,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -470,40 +431,40 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -517,97 +478,48 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -618,7 +530,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -643,49 +555,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -699,13 +611,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -714,25 +626,25 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -746,97 +658,48 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="505d041b-0c10-4e8c-afde-d41eb890b5b2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="fffff37654ce-3e64-4e5e-97fa-e71480b4877b.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="ffffff73458b5e-c28f-4c01-9120-ffda3c258ae7.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId4"/>
+    <hyperlink ref="H3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/oltest/yuwzho/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>88552b79-3232-45b1-9dbb-f65282794b4c.md</t>
-  </si>
-  <si>
-    <t>e2e\88552b79-3232-45b1-9dbb-f65282794b4c.md</t>
+    <t>081c1e27-29ec-4044-a937-464bc093a7ba.md</t>
+  </si>
+  <si>
+    <t>e2e\081c1e27-29ec-4044-a937-464bc093a7ba.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,13 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2016-07-26 08:22:25</t>
-  </si>
-  <si>
-    <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md</t>
-  </si>
-  <si>
-    <t>e2e\ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md</t>
+    <t>2016-07-26 08:28:33</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -109,13 +103,13 @@
     <t>ht</t>
   </si>
   <si>
-    <t>88552b79-3232-45b1-9dbb-f65282794b4c.4e69898a37946567d0d9bc9b650b911e5a646c1f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:22:15</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:23:14</t>
+    <t>081c1e27-29ec-4044-a937-464bc093a7ba.64f745155fe404696f13c620095562739972832f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:28:22</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:29:24</t>
   </si>
   <si>
     <t/>
@@ -127,16 +121,10 @@
     <t>False</t>
   </si>
   <si>
-    <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.d93bf6ab61dcd3b74c5fe2538052fd1321ecf7ac.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>88552b79-3232-45b1-9dbb-f65282794b4c.4e69898a37946567d0d9bc9b650b911e5a646c1f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-07-26 08:23:32</t>
-  </si>
-  <si>
-    <t>ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.d93bf6ab61dcd3b74c5fe2538052fd1321ecf7ac.de-de.xlf</t>
+    <t>081c1e27-29ec-4044-a937-464bc093a7ba.64f745155fe404696f13c620095562739972832f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-07-26 08:29:41</t>
   </si>
 </sst>
 </file>
@@ -193,8 +181,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O3" headerRowCount="1">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:O2" headerRowCount="1">
+  <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +205,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O3" headerRowCount="1">
-  <autoFilter ref="A1:O3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:O2" headerRowCount="1">
+  <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -241,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -258,7 +246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -316,30 +304,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\081c1e27-29ec-4044-a937-464bc093a7ba.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -350,7 +317,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -375,49 +342,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -431,95 +398,46 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="O2" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="081c1e27-29ec-4044-a937-464bc093a7ba.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="081c1e27-29ec-4044-a937-464bc093a7ba.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -530,7 +448,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -555,49 +473,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -611,13 +529,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -626,80 +544,31 @@
         <v>7</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="O2" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId2"/>
-    <hyperlink ref="H2" display="88552b79-3232-45b1-9dbb-f65282794b4c.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId4"/>
-    <hyperlink ref="H3" display="ce9e5566-f3ff-4db1-9103-3cc2fc4ec57b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="081c1e27-29ec-4044-a937-464bc093a7ba.md" r:id="rId2"/>
+    <hyperlink ref="H2" display="081c1e27-29ec-4044-a937-464bc093a7ba.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
